--- a/Shopping/target/test-classes/features/data/testData.xlsx
+++ b/Shopping/target/test-classes/features/data/testData.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A4" r:id="rId2" display="https://www.amazon.in"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>